--- a/kurs.xlsx
+++ b/kurs.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kurs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240B5DAE-EC59-4466-8163-19585F27F387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B907DC25-BBF3-4ADA-8809-1DD0EE6EECBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AAEA3022-693F-4B59-B31D-FCC86899E15E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{AAEA3022-693F-4B59-B31D-FCC86899E15E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$6:$C$15</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
   <si>
     <t>Dropout, %</t>
   </si>
@@ -46,12 +48,21 @@
   <si>
     <t>Batch size</t>
   </si>
+  <si>
+    <t>Hidden layer size</t>
+  </si>
+  <si>
+    <t>Time, ms</t>
+  </si>
+  <si>
+    <t>Accuracy, %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +75,27 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,7 +121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -215,11 +247,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -244,6 +427,46 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,6 +481,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93646B3E-23B0-49BF-8A0E-415F4A59F95F}">
   <dimension ref="A2:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,60 +847,60 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="18"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
-      <c r="C3" s="15">
+      <c r="C3" s="29">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14">
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="28">
         <v>2</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="14">
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="28">
         <v>3</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="14">
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="28">
         <v>4</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
@@ -1159,4 +1418,961 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EBF6F3-4009-4993-BE5F-D4D591999083}">
+  <dimension ref="B1:M14"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="3" width="11.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="14"/>
+    <col min="10" max="10" width="5.5703125" style="14" customWidth="1"/>
+    <col min="11" max="17" width="9.7109375" style="14" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="26"/>
+      <c r="C2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="27"/>
+      <c r="C3" s="36">
+        <v>15</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="36">
+        <v>25</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="36">
+        <v>40</v>
+      </c>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21">
+        <v>92.381399999999999</v>
+      </c>
+      <c r="D5" s="21">
+        <v>977.35</v>
+      </c>
+      <c r="E5" s="21">
+        <v>94.034300000000002</v>
+      </c>
+      <c r="F5" s="21">
+        <v>1020.42</v>
+      </c>
+      <c r="G5" s="21">
+        <v>95.097099999999998</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1010.31</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
+        <f t="shared" ref="K5:K14" si="0">D5/C5</f>
+        <v>10.579510594123926</v>
+      </c>
+      <c r="L5" s="20">
+        <f t="shared" ref="L5:L14" si="1">F5/E5</f>
+        <v>10.851572245446608</v>
+      </c>
+      <c r="M5" s="20">
+        <f t="shared" ref="M5:M14" si="2">H5/G5</f>
+        <v>10.623983276041015</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
+        <v>10</v>
+      </c>
+      <c r="C6" s="21">
+        <v>92.204999999999998</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1007.98</v>
+      </c>
+      <c r="E6" s="21">
+        <v>94.029300000000006</v>
+      </c>
+      <c r="F6" s="21">
+        <v>1048.93</v>
+      </c>
+      <c r="G6" s="21">
+        <v>95.03</v>
+      </c>
+      <c r="H6" s="22">
+        <v>1031.6300000000001</v>
+      </c>
+      <c r="J6" s="25">
+        <v>10</v>
+      </c>
+      <c r="K6" s="20">
+        <f t="shared" si="0"/>
+        <v>10.931945122281872</v>
+      </c>
+      <c r="L6" s="20">
+        <f t="shared" si="1"/>
+        <v>11.155352640081336</v>
+      </c>
+      <c r="M6" s="20">
+        <f t="shared" si="2"/>
+        <v>10.855834999473851</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
+        <v>20</v>
+      </c>
+      <c r="C7" s="21">
+        <v>91.526399999999995</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1003.56</v>
+      </c>
+      <c r="E7" s="21">
+        <v>93.482900000000001</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1029.42</v>
+      </c>
+      <c r="G7" s="21">
+        <v>94.818600000000004</v>
+      </c>
+      <c r="H7" s="22">
+        <v>1022.94</v>
+      </c>
+      <c r="J7" s="25">
+        <v>20</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="0"/>
+        <v>10.964705265366058</v>
+      </c>
+      <c r="L7" s="20">
+        <f t="shared" si="1"/>
+        <v>11.011853504758625</v>
+      </c>
+      <c r="M7" s="20">
+        <f t="shared" si="2"/>
+        <v>10.788389619758149</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
+        <v>30</v>
+      </c>
+      <c r="C8" s="21">
+        <v>90.915700000000001</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1016.91</v>
+      </c>
+      <c r="E8" s="21">
+        <v>93.075699999999998</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1046.06</v>
+      </c>
+      <c r="G8" s="21">
+        <v>94.462100000000007</v>
+      </c>
+      <c r="H8" s="22">
+        <v>1021.82</v>
+      </c>
+      <c r="J8" s="25">
+        <v>30</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" si="0"/>
+        <v>11.185196836190009</v>
+      </c>
+      <c r="L8" s="20">
+        <f t="shared" si="1"/>
+        <v>11.238808840545921</v>
+      </c>
+      <c r="M8" s="20">
+        <f t="shared" si="2"/>
+        <v>10.817248399093392</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
+        <v>40</v>
+      </c>
+      <c r="C9" s="21">
+        <v>90.085700000000003</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1023.58</v>
+      </c>
+      <c r="E9" s="21">
+        <v>92.32289999999999</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1047.1500000000001</v>
+      </c>
+      <c r="G9" s="21">
+        <v>93.715000000000003</v>
+      </c>
+      <c r="H9" s="22">
+        <v>1041.6199999999999</v>
+      </c>
+      <c r="J9" s="25">
+        <v>40</v>
+      </c>
+      <c r="K9" s="20">
+        <f t="shared" si="0"/>
+        <v>11.362291684473785</v>
+      </c>
+      <c r="L9" s="20">
+        <f t="shared" si="1"/>
+        <v>11.342256363264154</v>
+      </c>
+      <c r="M9" s="20">
+        <f t="shared" si="2"/>
+        <v>11.114762844795388</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
+        <v>50</v>
+      </c>
+      <c r="C10" s="21">
+        <v>89.082099999999997</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1017.35</v>
+      </c>
+      <c r="E10" s="21">
+        <v>91.428600000000003</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1018.22</v>
+      </c>
+      <c r="G10" s="21">
+        <v>93.057900000000004</v>
+      </c>
+      <c r="H10" s="22">
+        <v>1018.32</v>
+      </c>
+      <c r="J10" s="25">
+        <v>50</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" si="0"/>
+        <v>11.420363911492881</v>
+      </c>
+      <c r="L10" s="20">
+        <f t="shared" si="1"/>
+        <v>11.136777769756947</v>
+      </c>
+      <c r="M10" s="20">
+        <f t="shared" si="2"/>
+        <v>10.942864603649985</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
+        <v>60</v>
+      </c>
+      <c r="C11" s="21">
+        <v>87.48</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1020.24</v>
+      </c>
+      <c r="E11" s="21">
+        <v>90.419300000000007</v>
+      </c>
+      <c r="F11" s="21">
+        <v>1056.49</v>
+      </c>
+      <c r="G11" s="21">
+        <v>92.09</v>
+      </c>
+      <c r="H11" s="22">
+        <v>1038.51</v>
+      </c>
+      <c r="J11" s="25">
+        <v>60</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="shared" si="0"/>
+        <v>11.662551440329217</v>
+      </c>
+      <c r="L11" s="20">
+        <f t="shared" si="1"/>
+        <v>11.684341727927555</v>
+      </c>
+      <c r="M11" s="20">
+        <f t="shared" si="2"/>
+        <v>11.277120208491693</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
+        <v>70</v>
+      </c>
+      <c r="C12" s="21">
+        <v>85.34</v>
+      </c>
+      <c r="D12" s="21">
+        <v>1034.9000000000001</v>
+      </c>
+      <c r="E12" s="21">
+        <v>88.901399999999995</v>
+      </c>
+      <c r="F12" s="21">
+        <v>1045.6400000000001</v>
+      </c>
+      <c r="G12" s="21">
+        <v>90.837900000000005</v>
+      </c>
+      <c r="H12" s="22">
+        <v>1052.8399999999999</v>
+      </c>
+      <c r="J12" s="25">
+        <v>70</v>
+      </c>
+      <c r="K12" s="20">
+        <f t="shared" si="0"/>
+        <v>12.126786969767988</v>
+      </c>
+      <c r="L12" s="20">
+        <f t="shared" si="1"/>
+        <v>11.761794527420268</v>
+      </c>
+      <c r="M12" s="20">
+        <f t="shared" si="2"/>
+        <v>11.590316376754634</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
+        <v>80</v>
+      </c>
+      <c r="C13" s="21">
+        <v>79.401399999999995</v>
+      </c>
+      <c r="D13" s="21">
+        <v>1034.6600000000001</v>
+      </c>
+      <c r="E13" s="21">
+        <v>85.245000000000005</v>
+      </c>
+      <c r="F13" s="21">
+        <v>1036.0899999999999</v>
+      </c>
+      <c r="G13" s="21">
+        <v>88.606399999999994</v>
+      </c>
+      <c r="H13" s="22">
+        <v>1027.98</v>
+      </c>
+      <c r="J13" s="25">
+        <v>80</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" si="0"/>
+        <v>13.03075260637722</v>
+      </c>
+      <c r="L13" s="20">
+        <f t="shared" si="1"/>
+        <v>12.154261246993958</v>
+      </c>
+      <c r="M13" s="20">
+        <f t="shared" si="2"/>
+        <v>11.601645027898662</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="19">
+        <v>90</v>
+      </c>
+      <c r="C14" s="23">
+        <v>59.110700000000008</v>
+      </c>
+      <c r="D14" s="23">
+        <v>1034.49</v>
+      </c>
+      <c r="E14" s="23">
+        <v>69.867900000000006</v>
+      </c>
+      <c r="F14" s="23">
+        <v>1054.3699999999999</v>
+      </c>
+      <c r="G14" s="23">
+        <v>79.637900000000002</v>
+      </c>
+      <c r="H14" s="24">
+        <v>1073.7</v>
+      </c>
+      <c r="J14" s="25">
+        <v>90</v>
+      </c>
+      <c r="K14" s="20">
+        <f t="shared" si="0"/>
+        <v>17.50089239342454</v>
+      </c>
+      <c r="L14" s="20">
+        <f t="shared" si="1"/>
+        <v>15.090907269289614</v>
+      </c>
+      <c r="M14" s="20">
+        <f t="shared" si="2"/>
+        <v>13.482274143341298</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K5:K14">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L14">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M14">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C14">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E14">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EC238E-6C6D-4D9D-B214-9E01B7CAEF5A}">
+  <dimension ref="B2:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="3" width="11.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42">
+        <v>15</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42">
+        <v>25</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42">
+        <v>40</v>
+      </c>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="25">
+        <v>0</v>
+      </c>
+      <c r="C5" s="44">
+        <v>92.552000000000007</v>
+      </c>
+      <c r="D5" s="44">
+        <v>927.50800000000004</v>
+      </c>
+      <c r="E5" s="44">
+        <v>93.998000000000005</v>
+      </c>
+      <c r="F5" s="44">
+        <v>955.48500000000001</v>
+      </c>
+      <c r="G5" s="44">
+        <v>94.878</v>
+      </c>
+      <c r="H5" s="44">
+        <v>961.298</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="25">
+        <v>10</v>
+      </c>
+      <c r="C6" s="44">
+        <v>92.191000000000003</v>
+      </c>
+      <c r="D6" s="44">
+        <v>965.18100000000004</v>
+      </c>
+      <c r="E6" s="44">
+        <v>94.072000000000003</v>
+      </c>
+      <c r="F6" s="44">
+        <v>992.69399999999996</v>
+      </c>
+      <c r="G6" s="44">
+        <v>95.248000000000005</v>
+      </c>
+      <c r="H6" s="44">
+        <v>990.721</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="25">
+        <v>20</v>
+      </c>
+      <c r="C7" s="44">
+        <v>91.578000000000003</v>
+      </c>
+      <c r="D7" s="44">
+        <v>968.95899999999995</v>
+      </c>
+      <c r="E7" s="44">
+        <v>93.638999999999996</v>
+      </c>
+      <c r="F7" s="44">
+        <v>981.20500000000004</v>
+      </c>
+      <c r="G7" s="44">
+        <v>94.724999999999994</v>
+      </c>
+      <c r="H7" s="44">
+        <v>977.08600000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="25">
+        <v>30</v>
+      </c>
+      <c r="C8" s="44">
+        <v>90.742999999999995</v>
+      </c>
+      <c r="D8" s="44">
+        <v>987.471</v>
+      </c>
+      <c r="E8" s="44">
+        <v>92.844999999999999</v>
+      </c>
+      <c r="F8" s="44">
+        <v>993.07799999999997</v>
+      </c>
+      <c r="G8" s="44">
+        <v>94.331000000000003</v>
+      </c>
+      <c r="H8" s="44">
+        <v>970.49800000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
+        <v>40</v>
+      </c>
+      <c r="C9" s="44">
+        <v>90.191999999999993</v>
+      </c>
+      <c r="D9" s="44">
+        <v>971.16</v>
+      </c>
+      <c r="E9" s="44">
+        <v>92.373000000000005</v>
+      </c>
+      <c r="F9" s="44">
+        <v>994.53499999999997</v>
+      </c>
+      <c r="G9" s="44">
+        <v>93.867999999999995</v>
+      </c>
+      <c r="H9" s="44">
+        <v>976.005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="25">
+        <v>50</v>
+      </c>
+      <c r="C10" s="44">
+        <v>88.653000000000006</v>
+      </c>
+      <c r="D10" s="44">
+        <v>971.89200000000005</v>
+      </c>
+      <c r="E10" s="44">
+        <v>91.504000000000005</v>
+      </c>
+      <c r="F10" s="44">
+        <v>981.23699999999997</v>
+      </c>
+      <c r="G10" s="44">
+        <v>93.088999999999999</v>
+      </c>
+      <c r="H10" s="44">
+        <v>960.43499999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="25">
+        <v>60</v>
+      </c>
+      <c r="C11" s="44">
+        <v>87.546000000000006</v>
+      </c>
+      <c r="D11" s="44">
+        <v>1005.711</v>
+      </c>
+      <c r="E11" s="44">
+        <v>90.566999999999993</v>
+      </c>
+      <c r="F11" s="44">
+        <v>999.70299999999997</v>
+      </c>
+      <c r="G11" s="44">
+        <v>92.257000000000005</v>
+      </c>
+      <c r="H11" s="44">
+        <v>984.96699999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="25">
+        <v>70</v>
+      </c>
+      <c r="C12" s="44">
+        <v>85.584000000000003</v>
+      </c>
+      <c r="D12" s="44">
+        <v>997.95799999999997</v>
+      </c>
+      <c r="E12" s="44">
+        <v>88.816000000000003</v>
+      </c>
+      <c r="F12" s="44">
+        <v>981.55600000000004</v>
+      </c>
+      <c r="G12" s="44">
+        <v>90.853999999999999</v>
+      </c>
+      <c r="H12" s="44">
+        <v>976.83100000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="25">
+        <v>80</v>
+      </c>
+      <c r="C13" s="44">
+        <v>79.861999999999995</v>
+      </c>
+      <c r="D13" s="44">
+        <v>975.51300000000003</v>
+      </c>
+      <c r="E13" s="44">
+        <v>85.662000000000006</v>
+      </c>
+      <c r="F13" s="44">
+        <v>1006.489</v>
+      </c>
+      <c r="G13" s="44">
+        <v>89.04</v>
+      </c>
+      <c r="H13" s="44">
+        <v>984.09</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="25">
+        <v>90</v>
+      </c>
+      <c r="C14" s="44">
+        <v>57.292000000000002</v>
+      </c>
+      <c r="D14" s="44">
+        <v>957.93700000000001</v>
+      </c>
+      <c r="E14" s="44">
+        <v>66.549000000000007</v>
+      </c>
+      <c r="F14" s="44">
+        <v>992.71600000000001</v>
+      </c>
+      <c r="G14" s="44">
+        <v>79.947999999999993</v>
+      </c>
+      <c r="H14" s="44">
+        <v>973.90099999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:C14">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E14">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/kurs.xlsx
+++ b/kurs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kurs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B907DC25-BBF3-4ADA-8809-1DD0EE6EECBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE9A39F-154B-4776-BCD0-62B8279147C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{AAEA3022-693F-4B59-B31D-FCC86899E15E}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$6:$C$15</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
   <si>
     <t>Dropout, %</t>
   </si>
@@ -56,6 +57,15 @@
   </si>
   <si>
     <t>Accuracy, %</t>
+  </si>
+  <si>
+    <t>Точность, %</t>
+  </si>
+  <si>
+    <t>Время, мс</t>
+  </si>
+  <si>
+    <t>скорость</t>
   </si>
 </sst>
 </file>
@@ -402,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -467,6 +477,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,23 +519,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,6 +549,2547 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время обучения</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Первая сеть (15)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$18:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>927.50800000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>965.18100000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>968.95899999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>987.471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>971.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>971.89200000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1005.711</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>997.95799999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>975.51300000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>957.93700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BB16-4CE2-8434-1F367EAF8DCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Вторая сеть (25)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$18:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$30:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>955.48500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>992.69399999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>981.20500000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>993.07799999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>994.53499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>981.23699999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>999.70299999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>981.55600000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1006.489</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>992.71600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BB16-4CE2-8434-1F367EAF8DCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Третья сеть (40)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$42:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>961.298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>990.721</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>977.08600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>970.49800000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>976.005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>960.43499999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>984.96699999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>976.83100000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>984.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>973.90099999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BB16-4CE2-8434-1F367EAF8DCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="546628288"/>
+        <c:axId val="546633208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="546628288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dropout,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546633208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="546633208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1010"/>
+          <c:min val="920"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> мс</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546628288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Скорость обучения</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Первая сеть (15)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$42:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$18:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.9785662226094016E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5516799439690589E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4511738886784685E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1894344238970055E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2870381811441985E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1216925337383167E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7048863938049809E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5759120123291774E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1866669126910652E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9807690902428864E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7679-4579-B564-18728C479FDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Вторая сеть (25)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$42:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$30:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.837726390262537E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4764348328890885E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5432656784260161E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3492152680856894E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2880592437671883E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3253719539723848E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.059390639019789E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.048490356128433E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.510972300740495E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7037299690948876E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7679-4579-B564-18728C479FDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Третья сеть (40)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$42:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$42:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.869780234641079E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6140083837932183E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6946430508675796E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7198551671409936E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6175736804627016E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6923789741106894E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3665066951481635E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3008923754467246E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0479529311343482E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.2090479422446433E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7679-4579-B564-18728C479FDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="579261576"/>
+        <c:axId val="579255016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="579261576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dropout, %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579255016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579255016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+          <c:min val="5.5000000000000007E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Прирост %</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>мс</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2889155373782201E-2"/>
+              <c:y val="0.37563595801420158"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579261576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>589815</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>159725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>34988</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127533</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C4AACA-1E2F-336D-C941-8096245A8713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>578825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>5860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>23998</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171494</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BADE4C5-245C-2D81-B8EB-E468F07F3CDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -847,60 +3404,60 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="32"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
-      <c r="C3" s="29">
+      <c r="C3" s="32">
         <v>1</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="28">
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="31">
         <v>2</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="28">
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="31">
         <v>3</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="28">
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="31">
         <v>4</v>
       </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
@@ -1446,29 +4003,29 @@
     <row r="1" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="26"/>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="27"/>
-      <c r="C3" s="36">
+      <c r="C3" s="39">
         <v>15</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36">
+      <c r="D3" s="40"/>
+      <c r="E3" s="39">
         <v>25</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="36">
+      <c r="F3" s="40"/>
+      <c r="G3" s="39">
         <v>40</v>
       </c>
-      <c r="H3" s="38"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
@@ -1995,70 +4552,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EC238E-6C6D-4D9D-B214-9E01B7CAEF5A}">
-  <dimension ref="B2:H14"/>
+  <dimension ref="B2:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="14"/>
-    <col min="2" max="3" width="11.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="14" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42">
+      <c r="B3" s="45"/>
+      <c r="C3" s="43">
         <v>15</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43">
         <v>25</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42">
+      <c r="F3" s="43"/>
+      <c r="G3" s="43">
         <v>40</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2066,22 +4624,22 @@
       <c r="B5" s="25">
         <v>0</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="30">
         <v>92.552000000000007</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="30">
         <v>927.50800000000004</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="30">
         <v>93.998000000000005</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="30">
         <v>955.48500000000001</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="30">
         <v>94.878</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="30">
         <v>961.298</v>
       </c>
     </row>
@@ -2089,22 +4647,22 @@
       <c r="B6" s="25">
         <v>10</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="30">
         <v>92.191000000000003</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="30">
         <v>965.18100000000004</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="30">
         <v>94.072000000000003</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="30">
         <v>992.69399999999996</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="30">
         <v>95.248000000000005</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="30">
         <v>990.721</v>
       </c>
     </row>
@@ -2112,22 +4670,22 @@
       <c r="B7" s="25">
         <v>20</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="30">
         <v>91.578000000000003</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="30">
         <v>968.95899999999995</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="30">
         <v>93.638999999999996</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="30">
         <v>981.20500000000004</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="30">
         <v>94.724999999999994</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="30">
         <v>977.08600000000001</v>
       </c>
     </row>
@@ -2135,22 +4693,22 @@
       <c r="B8" s="25">
         <v>30</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="30">
         <v>90.742999999999995</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="30">
         <v>987.471</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="30">
         <v>92.844999999999999</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="30">
         <v>993.07799999999997</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="30">
         <v>94.331000000000003</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="30">
         <v>970.49800000000005</v>
       </c>
     </row>
@@ -2158,22 +4716,22 @@
       <c r="B9" s="25">
         <v>40</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="30">
         <v>90.191999999999993</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="30">
         <v>971.16</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="30">
         <v>92.373000000000005</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="30">
         <v>994.53499999999997</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="30">
         <v>93.867999999999995</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="30">
         <v>976.005</v>
       </c>
     </row>
@@ -2181,22 +4739,22 @@
       <c r="B10" s="25">
         <v>50</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="30">
         <v>88.653000000000006</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="30">
         <v>971.89200000000005</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="30">
         <v>91.504000000000005</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="30">
         <v>981.23699999999997</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="30">
         <v>93.088999999999999</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="30">
         <v>960.43499999999995</v>
       </c>
     </row>
@@ -2204,22 +4762,22 @@
       <c r="B11" s="25">
         <v>60</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="30">
         <v>87.546000000000006</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="30">
         <v>1005.711</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="30">
         <v>90.566999999999993</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="30">
         <v>999.70299999999997</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="30">
         <v>92.257000000000005</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="30">
         <v>984.96699999999998</v>
       </c>
     </row>
@@ -2227,22 +4785,22 @@
       <c r="B12" s="25">
         <v>70</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="30">
         <v>85.584000000000003</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="30">
         <v>997.95799999999997</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="30">
         <v>88.816000000000003</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="30">
         <v>981.55600000000004</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="30">
         <v>90.853999999999999</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="30">
         <v>976.83100000000002</v>
       </c>
     </row>
@@ -2250,22 +4808,22 @@
       <c r="B13" s="25">
         <v>80</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="30">
         <v>79.861999999999995</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="30">
         <v>975.51300000000003</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="30">
         <v>85.662000000000006</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="30">
         <v>1006.489</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="30">
         <v>89.04</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="30">
         <v>984.09</v>
       </c>
     </row>
@@ -2273,23 +4831,509 @@
       <c r="B14" s="25">
         <v>90</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="30">
         <v>57.292000000000002</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="30">
         <v>957.93700000000001</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="30">
         <v>66.549000000000007</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="30">
         <v>992.71600000000001</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="30">
         <v>79.947999999999993</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="30">
         <v>973.90099999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="28">
+        <v>0</v>
+      </c>
+      <c r="C18" s="30">
+        <v>92.552000000000007</v>
+      </c>
+      <c r="D18" s="30">
+        <v>927.50800000000004</v>
+      </c>
+      <c r="E18" s="14">
+        <f>C18/D18</f>
+        <v>9.9785662226094016E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="28">
+        <v>10</v>
+      </c>
+      <c r="C19" s="30">
+        <v>92.191000000000003</v>
+      </c>
+      <c r="D19" s="30">
+        <v>965.18100000000004</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" ref="E19:E51" si="0">C19/D19</f>
+        <v>9.5516799439690589E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="28">
+        <v>20</v>
+      </c>
+      <c r="C20" s="30">
+        <v>91.578000000000003</v>
+      </c>
+      <c r="D20" s="30">
+        <v>968.95899999999995</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="0"/>
+        <v>9.4511738886784685E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="28">
+        <v>30</v>
+      </c>
+      <c r="C21" s="30">
+        <v>90.742999999999995</v>
+      </c>
+      <c r="D21" s="30">
+        <v>987.471</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="0"/>
+        <v>9.1894344238970055E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="28">
+        <v>40</v>
+      </c>
+      <c r="C22" s="30">
+        <v>90.191999999999993</v>
+      </c>
+      <c r="D22" s="30">
+        <v>971.16</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="0"/>
+        <v>9.2870381811441985E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="28">
+        <v>50</v>
+      </c>
+      <c r="C23" s="30">
+        <v>88.653000000000006</v>
+      </c>
+      <c r="D23" s="30">
+        <v>971.89200000000005</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="0"/>
+        <v>9.1216925337383167E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="28">
+        <v>60</v>
+      </c>
+      <c r="C24" s="30">
+        <v>87.546000000000006</v>
+      </c>
+      <c r="D24" s="30">
+        <v>1005.711</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="0"/>
+        <v>8.7048863938049809E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="28">
+        <v>70</v>
+      </c>
+      <c r="C25" s="30">
+        <v>85.584000000000003</v>
+      </c>
+      <c r="D25" s="30">
+        <v>997.95799999999997</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="0"/>
+        <v>8.5759120123291774E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="28">
+        <v>80</v>
+      </c>
+      <c r="C26" s="30">
+        <v>79.861999999999995</v>
+      </c>
+      <c r="D26" s="30">
+        <v>975.51300000000003</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="0"/>
+        <v>8.1866669126910652E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="28">
+        <v>90</v>
+      </c>
+      <c r="C27" s="30">
+        <v>57.292000000000002</v>
+      </c>
+      <c r="D27" s="30">
+        <v>957.93700000000001</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="0"/>
+        <v>5.9807690902428864E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="28">
+        <v>0</v>
+      </c>
+      <c r="C30" s="30">
+        <v>93.998000000000005</v>
+      </c>
+      <c r="D30" s="30">
+        <v>955.48500000000001</v>
+      </c>
+      <c r="E30" s="14">
+        <f t="shared" si="0"/>
+        <v>9.837726390262537E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="28">
+        <v>10</v>
+      </c>
+      <c r="C31" s="30">
+        <v>94.072000000000003</v>
+      </c>
+      <c r="D31" s="30">
+        <v>992.69399999999996</v>
+      </c>
+      <c r="E31" s="14">
+        <f t="shared" si="0"/>
+        <v>9.4764348328890885E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="28">
+        <v>20</v>
+      </c>
+      <c r="C32" s="30">
+        <v>93.638999999999996</v>
+      </c>
+      <c r="D32" s="30">
+        <v>981.20500000000004</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="0"/>
+        <v>9.5432656784260161E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="28">
+        <v>30</v>
+      </c>
+      <c r="C33" s="30">
+        <v>92.844999999999999</v>
+      </c>
+      <c r="D33" s="30">
+        <v>993.07799999999997</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" si="0"/>
+        <v>9.3492152680856894E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="28">
+        <v>40</v>
+      </c>
+      <c r="C34" s="30">
+        <v>92.373000000000005</v>
+      </c>
+      <c r="D34" s="30">
+        <v>994.53499999999997</v>
+      </c>
+      <c r="E34" s="14">
+        <f t="shared" si="0"/>
+        <v>9.2880592437671883E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="28">
+        <v>50</v>
+      </c>
+      <c r="C35" s="30">
+        <v>91.504000000000005</v>
+      </c>
+      <c r="D35" s="30">
+        <v>981.23699999999997</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" si="0"/>
+        <v>9.3253719539723848E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="28">
+        <v>60</v>
+      </c>
+      <c r="C36" s="30">
+        <v>90.566999999999993</v>
+      </c>
+      <c r="D36" s="30">
+        <v>999.70299999999997</v>
+      </c>
+      <c r="E36" s="14">
+        <f t="shared" si="0"/>
+        <v>9.059390639019789E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="28">
+        <v>70</v>
+      </c>
+      <c r="C37" s="30">
+        <v>88.816000000000003</v>
+      </c>
+      <c r="D37" s="30">
+        <v>981.55600000000004</v>
+      </c>
+      <c r="E37" s="14">
+        <f t="shared" si="0"/>
+        <v>9.048490356128433E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="28">
+        <v>80</v>
+      </c>
+      <c r="C38" s="30">
+        <v>85.662000000000006</v>
+      </c>
+      <c r="D38" s="30">
+        <v>1006.489</v>
+      </c>
+      <c r="E38" s="14">
+        <f t="shared" si="0"/>
+        <v>8.510972300740495E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="28">
+        <v>90</v>
+      </c>
+      <c r="C39" s="30">
+        <v>66.549000000000007</v>
+      </c>
+      <c r="D39" s="30">
+        <v>992.71600000000001</v>
+      </c>
+      <c r="E39" s="14">
+        <f t="shared" si="0"/>
+        <v>6.7037299690948876E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="28">
+        <v>0</v>
+      </c>
+      <c r="C42" s="30">
+        <v>94.878</v>
+      </c>
+      <c r="D42" s="30">
+        <v>961.298</v>
+      </c>
+      <c r="E42" s="14">
+        <f t="shared" si="0"/>
+        <v>9.869780234641079E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="28">
+        <v>10</v>
+      </c>
+      <c r="C43" s="30">
+        <v>95.248000000000005</v>
+      </c>
+      <c r="D43" s="30">
+        <v>990.721</v>
+      </c>
+      <c r="E43" s="14">
+        <f t="shared" si="0"/>
+        <v>9.6140083837932183E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="28">
+        <v>20</v>
+      </c>
+      <c r="C44" s="30">
+        <v>94.724999999999994</v>
+      </c>
+      <c r="D44" s="30">
+        <v>977.08600000000001</v>
+      </c>
+      <c r="E44" s="14">
+        <f t="shared" si="0"/>
+        <v>9.6946430508675796E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="28">
+        <v>30</v>
+      </c>
+      <c r="C45" s="30">
+        <v>94.331000000000003</v>
+      </c>
+      <c r="D45" s="30">
+        <v>970.49800000000005</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" si="0"/>
+        <v>9.7198551671409936E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="28">
+        <v>40</v>
+      </c>
+      <c r="C46" s="30">
+        <v>93.867999999999995</v>
+      </c>
+      <c r="D46" s="30">
+        <v>976.005</v>
+      </c>
+      <c r="E46" s="14">
+        <f t="shared" si="0"/>
+        <v>9.6175736804627016E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="28">
+        <v>50</v>
+      </c>
+      <c r="C47" s="30">
+        <v>93.088999999999999</v>
+      </c>
+      <c r="D47" s="30">
+        <v>960.43499999999995</v>
+      </c>
+      <c r="E47" s="14">
+        <f t="shared" si="0"/>
+        <v>9.6923789741106894E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="28">
+        <v>60</v>
+      </c>
+      <c r="C48" s="30">
+        <v>92.257000000000005</v>
+      </c>
+      <c r="D48" s="30">
+        <v>984.96699999999998</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" si="0"/>
+        <v>9.3665066951481635E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="28">
+        <v>70</v>
+      </c>
+      <c r="C49" s="30">
+        <v>90.853999999999999</v>
+      </c>
+      <c r="D49" s="30">
+        <v>976.83100000000002</v>
+      </c>
+      <c r="E49" s="14">
+        <f t="shared" si="0"/>
+        <v>9.3008923754467246E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="28">
+        <v>80</v>
+      </c>
+      <c r="C50" s="30">
+        <v>89.04</v>
+      </c>
+      <c r="D50" s="30">
+        <v>984.09</v>
+      </c>
+      <c r="E50" s="14">
+        <f t="shared" si="0"/>
+        <v>9.0479529311343482E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="28">
+        <v>90</v>
+      </c>
+      <c r="C51" s="30">
+        <v>79.947999999999993</v>
+      </c>
+      <c r="D51" s="30">
+        <v>973.90099999999995</v>
+      </c>
+      <c r="E51" s="14">
+        <f t="shared" si="0"/>
+        <v>8.2090479422446433E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2301,6 +5345,493 @@
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C14">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E14">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G14">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D14">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F14">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H14">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C27">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:C39">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42:C51">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D27">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D39">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:D51">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E27">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E39">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E51">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AC7CDE-6C20-474C-AFB5-D984675AE984}">
+  <dimension ref="C3:Q12"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>92.75</v>
+      </c>
+      <c r="E3">
+        <v>1017.582</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>94.034000000000006</v>
+      </c>
+      <c r="K3">
+        <v>971.96600000000001</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>95.061999999999998</v>
+      </c>
+      <c r="Q3">
+        <v>968.68299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>92.233000000000004</v>
+      </c>
+      <c r="E4">
+        <v>981.01400000000001</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>94.045000000000002</v>
+      </c>
+      <c r="K4">
+        <v>986.91200000000003</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>95.162999999999997</v>
+      </c>
+      <c r="Q4">
+        <v>970.90800000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>91.646000000000001</v>
+      </c>
+      <c r="E5">
+        <v>957.59299999999996</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>93.611999999999995</v>
+      </c>
+      <c r="K5">
+        <v>986.80899999999997</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+      <c r="P5">
+        <v>94.95</v>
+      </c>
+      <c r="Q5">
+        <v>982.529</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>90.674999999999997</v>
+      </c>
+      <c r="E6">
+        <v>962.65899999999999</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>93.034000000000006</v>
+      </c>
+      <c r="K6">
+        <v>984.42899999999997</v>
+      </c>
+      <c r="O6">
+        <v>30</v>
+      </c>
+      <c r="P6">
+        <v>94.275000000000006</v>
+      </c>
+      <c r="Q6">
+        <v>977.76900000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>90.225999999999999</v>
+      </c>
+      <c r="E7">
+        <v>965.69299999999998</v>
+      </c>
+      <c r="I7">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>92.203999999999994</v>
+      </c>
+      <c r="K7">
+        <v>1000.192</v>
+      </c>
+      <c r="O7">
+        <v>40</v>
+      </c>
+      <c r="P7">
+        <v>93.826999999999998</v>
+      </c>
+      <c r="Q7">
+        <v>980.14099999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>88.843999999999994</v>
+      </c>
+      <c r="E8">
+        <v>1014.4690000000001</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>91.253</v>
+      </c>
+      <c r="K8">
+        <v>999.00900000000001</v>
+      </c>
+      <c r="O8">
+        <v>50</v>
+      </c>
+      <c r="P8">
+        <v>93.358000000000004</v>
+      </c>
+      <c r="Q8">
+        <v>973.12400000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>87.497</v>
+      </c>
+      <c r="E9">
+        <v>985.11800000000005</v>
+      </c>
+      <c r="I9">
+        <v>60</v>
+      </c>
+      <c r="J9">
+        <v>90.667000000000002</v>
+      </c>
+      <c r="K9">
+        <v>998.43399999999997</v>
+      </c>
+      <c r="O9">
+        <v>60</v>
+      </c>
+      <c r="P9">
+        <v>92.111999999999995</v>
+      </c>
+      <c r="Q9">
+        <v>976.80200000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <v>85.126000000000005</v>
+      </c>
+      <c r="E10">
+        <v>982.27700000000004</v>
+      </c>
+      <c r="I10">
+        <v>70</v>
+      </c>
+      <c r="J10">
+        <v>88.445999999999998</v>
+      </c>
+      <c r="K10">
+        <v>989.54</v>
+      </c>
+      <c r="O10">
+        <v>70</v>
+      </c>
+      <c r="P10">
+        <v>90.875</v>
+      </c>
+      <c r="Q10">
+        <v>965.476</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>78.843999999999994</v>
+      </c>
+      <c r="E11">
+        <v>974.37900000000002</v>
+      </c>
+      <c r="I11">
+        <v>80</v>
+      </c>
+      <c r="J11">
+        <v>85.096000000000004</v>
+      </c>
+      <c r="K11">
+        <v>995.92200000000003</v>
+      </c>
+      <c r="O11">
+        <v>80</v>
+      </c>
+      <c r="P11">
+        <v>88.23</v>
+      </c>
+      <c r="Q11">
+        <v>974.24300000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>55.966000000000001</v>
+      </c>
+      <c r="E12">
+        <v>963.37800000000004</v>
+      </c>
+      <c r="I12">
+        <v>90</v>
+      </c>
+      <c r="J12">
+        <v>68.864000000000004</v>
+      </c>
+      <c r="K12">
+        <v>1019.851</v>
+      </c>
+      <c r="O12">
+        <v>90</v>
+      </c>
+      <c r="P12">
+        <v>79.350999999999999</v>
+      </c>
+      <c r="Q12">
+        <v>974.64099999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D3:D12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2312,19 +5843,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E14">
+  <conditionalFormatting sqref="E3:E12">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G14">
+  <conditionalFormatting sqref="J3:J12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2336,7 +5867,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D14">
+  <conditionalFormatting sqref="K3:K12">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2348,19 +5879,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F14">
+  <conditionalFormatting sqref="P3:P12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H14">
+  <conditionalFormatting sqref="Q3:Q12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2373,6 +5904,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>